--- a/user stories again.xlsx
+++ b/user stories again.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.daulby\Documents\Debate Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{9B67E8B7-A04F-4E64-BF57-4CD15640F000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772E10B-EB76-43D4-9439-C2672C502794}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B304937B-DCB9-41C9-9B78-3524C567048A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t xml:space="preserve">as a user i want to be able to </t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>1?</t>
+  </si>
+  <si>
+    <t>take static json</t>
+  </si>
+  <si>
+    <t>display the tree recursively</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3BE157-AA91-463A-8BB4-DD86A990487B}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -916,12 +922,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -929,12 +935,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -942,25 +948,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -968,17 +980,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>2</v>
       </c>
